--- a/documentacion/FullAutoavaluacio_SandraPerez.xlsx
+++ b/documentacion/FullAutoavaluacio_SandraPerez.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A86F2CB4-7ABA-4982-818C-2AE3930F10F9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B918CF-1435-4AB9-904C-88044975935E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -489,7 +489,7 @@
   <dimension ref="B3:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -736,7 +736,7 @@
       </c>
       <c r="C22">
         <f>SUM(C20:L20)</f>
-        <v>0.90000000000000024</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="45" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
@@ -926,7 +926,7 @@
       </c>
       <c r="L31">
         <f t="shared" ref="L31" si="19">L30*L28</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -935,7 +935,7 @@
       </c>
       <c r="C33">
         <f>SUM(C31:L31)</f>
-        <v>0.90000000000000024</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -951,6 +951,9 @@
       <c r="B37" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
@@ -961,7 +964,7 @@
       </c>
       <c r="C39">
         <f>C37*C35</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
